--- a/backend/fms_core/static/submission_templates/Experiment_Infinium_24_v3_5_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Experiment_Infinium_24_v3_5_0.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F181F-328D-194A-8449-7FFBA8C81C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiments" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Samples" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Experiments" sheetId="1" r:id="rId1"/>
+    <sheet name="Samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Index" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,11 +42,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Infinium chip Barcode</t>
+          <t>Infinium chip Barcode</t>
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,11 +56,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">provided with the kit</t>
+          <t>provided with the kit</t>
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -65,11 +70,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,11 +84,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0">
+    <comment ref="T10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -93,11 +98,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">until 4 barcodes per 96 well plate for 24 Sentrix format chip</t>
+          <t>until 4 barcodes per 96 well plate for 24 Sentrix format chip</t>
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="0">
+    <comment ref="X10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -107,11 +112,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="0">
+    <comment ref="Y10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,11 +126,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">date and time</t>
+          <t>date and time</t>
         </r>
       </text>
     </comment>
-    <comment ref="AM10" authorId="0">
+    <comment ref="AN10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -135,11 +140,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">This field is present only for lab validation. It will not be stored. It should match Experiment Container Barcode.</t>
+          <t>This field is present only for lab validation. It will not be stored. It should match Experiment Container Barcode.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AN10" authorId="0">
+    <comment ref="AO10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">can handle 4 chip max</t>
+          <t>can handle 4 chip max</t>
         </r>
       </text>
     </comment>
@@ -158,1367 +163,1366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="450">
-  <si>
-    <t xml:space="preserve">Experiment Submission Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinium Global Screening Array-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill the Experiments page with the information common to all samples in each experiment, then detail information specific to each sample on the Samples page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a sample appears in more than one experiment, enter multiple entries with the information pertaining to each experiment with the appropriate experiment ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wash beadchip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extend and Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image (scan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSA3 Plate Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1N NaOH formulation date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent MA1 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent MA2 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent MSM Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time In Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time Out Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Amplification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent FMS Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Fragmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PM1 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent RA1 Barcode Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization Chip Barcodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization Chamber Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PB2 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent XC4 Barcode Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time In Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incubation time Out Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Hybridization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PB1 Barcode Wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% form/EDTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent ATM Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent EML Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent LX1 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent LX2 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent PB1 Barcode Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent RA1 Barcode Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent SML Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent XC3 Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent XC4 Barcode Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Stain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SentrixBarcode_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan Chip Rack Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Sample Volume Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Container Coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x2 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x12 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16x24 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infinium gs 24 beadchip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="451">
+  <si>
+    <t>Experiment Submission Template</t>
+  </si>
+  <si>
+    <t>Run Type</t>
+  </si>
+  <si>
+    <t>Infinium Global Screening Array-24</t>
+  </si>
+  <si>
+    <t>Template Version</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>Fill the Experiments page with the information common to all samples in each experiment, then detail information specific to each sample on the Samples page.</t>
+  </si>
+  <si>
+    <t>If a sample appears in more than one experiment, enter multiple entries with the information pertaining to each experiment with the appropriate experiment ID.</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Amplification</t>
+  </si>
+  <si>
+    <t>Fragmentation</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Hybridization</t>
+  </si>
+  <si>
+    <t>Wash beadchip</t>
+  </si>
+  <si>
+    <t>Extend and Stain</t>
+  </si>
+  <si>
+    <t>Image (scan)</t>
+  </si>
+  <si>
+    <t>Experiment Name</t>
+  </si>
+  <si>
+    <t>Experiment Container Barcode</t>
+  </si>
+  <si>
+    <t>Experiment Container Kind</t>
+  </si>
+  <si>
+    <t>Instrument Name</t>
+  </si>
+  <si>
+    <t>Experiment Start Date</t>
+  </si>
+  <si>
+    <t>MSA3 Plate Barcode</t>
+  </si>
+  <si>
+    <t>0.1N NaOH formulation date</t>
+  </si>
+  <si>
+    <t>Reagent MA1 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent MA2 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent MSM Barcode</t>
+  </si>
+  <si>
+    <t>Incubation time In Amplification</t>
+  </si>
+  <si>
+    <t>Incubation time Out Amplification</t>
+  </si>
+  <si>
+    <t>Comment Amplification</t>
+  </si>
+  <si>
+    <t>Reagent FMS Barcode</t>
+  </si>
+  <si>
+    <t>Comment Fragmentation</t>
+  </si>
+  <si>
+    <t>Reagent PM1 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent RA1 Barcode Precipitation</t>
+  </si>
+  <si>
+    <t>Comment Precipitation</t>
+  </si>
+  <si>
+    <t>Hybridization Chip Barcodes</t>
+  </si>
+  <si>
+    <t>Hybridization Chamber Barcode</t>
+  </si>
+  <si>
+    <t>Reagent PB2 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent XC4 Barcode Hybridization</t>
+  </si>
+  <si>
+    <t>Incubation time In Hybridization</t>
+  </si>
+  <si>
+    <t>Incubation time Out Hybridization</t>
+  </si>
+  <si>
+    <t>Comment Hybridization</t>
+  </si>
+  <si>
+    <t>Reagent PB1 Barcode Wash</t>
+  </si>
+  <si>
+    <t>Comment Wash</t>
+  </si>
+  <si>
+    <t>95% form/EDTA</t>
+  </si>
+  <si>
+    <t>Reagent ATM Barcode</t>
+  </si>
+  <si>
+    <t>Reagent EML Barcode</t>
+  </si>
+  <si>
+    <t>Reagent LX1 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent LX2 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent PB1 Barcode Stain</t>
+  </si>
+  <si>
+    <t>Reagent RA1 Barcode Stain</t>
+  </si>
+  <si>
+    <t>Reagent SML Barcode</t>
+  </si>
+  <si>
+    <t>Reagent XC3 Barcode</t>
+  </si>
+  <si>
+    <t>Reagent XC4 Barcode Stain</t>
+  </si>
+  <si>
+    <t>Comment Stain</t>
+  </si>
+  <si>
+    <t>SentrixBarcode_A</t>
+  </si>
+  <si>
+    <t>Scan Chip Rack Barcode</t>
+  </si>
+  <si>
+    <t>Comment Scan</t>
+  </si>
+  <si>
+    <t>Sample Preparation</t>
+  </si>
+  <si>
+    <t>Source Container Barcode</t>
+  </si>
+  <si>
+    <t>Source Container Coordinates</t>
+  </si>
+  <si>
+    <t>Source Sample Volume Used</t>
+  </si>
+  <si>
+    <t>Experiment Container Coordinates</t>
+  </si>
+  <si>
+    <t>Container Kind</t>
+  </si>
+  <si>
+    <t>12x2 Coords</t>
+  </si>
+  <si>
+    <t>8x12 Coords</t>
+  </si>
+  <si>
+    <t>16x24 Coords</t>
+  </si>
+  <si>
+    <t>infinium gs 24 beadchip</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>I01</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>I02</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>J01</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>J02</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>L01</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>L02</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>I03</t>
+  </si>
+  <si>
+    <t>I04</t>
+  </si>
+  <si>
+    <t>I05</t>
+  </si>
+  <si>
+    <t>I06</t>
+  </si>
+  <si>
+    <t>I07</t>
+  </si>
+  <si>
+    <t>I08</t>
+  </si>
+  <si>
+    <t>I09</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>I16</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>J03</t>
+  </si>
+  <si>
+    <t>J04</t>
+  </si>
+  <si>
+    <t>J05</t>
+  </si>
+  <si>
+    <t>J06</t>
+  </si>
+  <si>
+    <t>J07</t>
+  </si>
+  <si>
+    <t>J08</t>
+  </si>
+  <si>
+    <t>J09</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>K07</t>
+  </si>
+  <si>
+    <t>K08</t>
+  </si>
+  <si>
+    <t>K09</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>K15</t>
+  </si>
+  <si>
+    <t>K16</t>
+  </si>
+  <si>
+    <t>K17</t>
+  </si>
+  <si>
+    <t>K18</t>
+  </si>
+  <si>
+    <t>K19</t>
+  </si>
+  <si>
+    <t>K20</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>K22</t>
+  </si>
+  <si>
+    <t>K23</t>
+  </si>
+  <si>
+    <t>K24</t>
+  </si>
+  <si>
+    <t>L03</t>
+  </si>
+  <si>
+    <t>L04</t>
+  </si>
+  <si>
+    <t>L05</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>L07</t>
+  </si>
+  <si>
+    <t>L08</t>
+  </si>
+  <si>
+    <t>L09</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N21</t>
+  </si>
+  <si>
+    <t>N22</t>
+  </si>
+  <si>
+    <t>N23</t>
+  </si>
+  <si>
+    <t>N24</t>
+  </si>
+  <si>
+    <t>O01</t>
+  </si>
+  <si>
+    <t>O02</t>
+  </si>
+  <si>
+    <t>O03</t>
+  </si>
+  <si>
+    <t>O04</t>
+  </si>
+  <si>
+    <t>O05</t>
+  </si>
+  <si>
+    <t>O06</t>
+  </si>
+  <si>
+    <t>O07</t>
+  </si>
+  <si>
+    <t>O08</t>
+  </si>
+  <si>
+    <t>O09</t>
+  </si>
+  <si>
+    <t>O10</t>
+  </si>
+  <si>
+    <t>O11</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>O17</t>
+  </si>
+  <si>
+    <t>O18</t>
+  </si>
+  <si>
+    <t>O19</t>
+  </si>
+  <si>
+    <t>O20</t>
+  </si>
+  <si>
+    <t>O21</t>
+  </si>
+  <si>
+    <t>O22</t>
+  </si>
+  <si>
+    <t>O23</t>
+  </si>
+  <si>
+    <t>O24</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1527,22 +1531,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1567,8 +1556,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1640,201 +1628,122 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="dashed"/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1893,76 +1802,383 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMI106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="24.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="26.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="1" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="1" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1019" style="0" width="9.17"/>
+    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="24.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="35" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.83203125" style="1" customWidth="1"/>
+    <col min="32" max="33" width="20.1640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" style="1" customWidth="1"/>
+    <col min="40" max="41" width="25.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1020" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1972,8 +2188,9 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1983,21 +2200,22 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2005,42 +2223,42 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="14" t="s">
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15" t="s">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
@@ -2050,13 +2268,14 @@
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
-      <c r="AM9" s="16" t="s">
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="16"/>
       <c r="AO9" s="16"/>
-    </row>
-    <row r="10" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP9" s="16"/>
+    </row>
+    <row r="10" spans="1:1024" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
@@ -2073,132 +2292,136 @@
         <v>19</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="N10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="Q10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="R10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="S10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="T10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="U10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="V10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="W10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="17" t="s">
+      <c r="X10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="Y10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="17" t="s">
+      <c r="Z10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="AA10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AA10" s="17" t="s">
+      <c r="AB10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AC10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AC10" s="17" t="s">
+      <c r="AD10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="17" t="s">
+      <c r="AE10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AE10" s="17" t="s">
+      <c r="AF10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AF10" s="17" t="s">
+      <c r="AG10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="17" t="s">
+      <c r="AH10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AH10" s="17" t="s">
+      <c r="AI10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="17" t="s">
+      <c r="AJ10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="17" t="s">
+      <c r="AK10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="17" t="s">
+      <c r="AL10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AL10" s="17" t="s">
+      <c r="AM10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AM10" s="17" t="s">
+      <c r="AN10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AN10" s="17" t="s">
+      <c r="AO10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" s="17" t="s">
+      <c r="AP10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AME10" s="19"/>
       <c r="AMF10" s="19"/>
       <c r="AMG10" s="19"/>
       <c r="AMH10" s="19"/>
       <c r="AMI10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ10" s="19"/>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="N11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AO11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="31"/>
+      <c r="G11" s="22"/>
+      <c r="O11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AP11" s="21"/>
+    </row>
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2240,8 +2463,9 @@
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP12" s="7"/>
+    </row>
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2283,8 +2507,9 @@
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP13" s="7"/>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2326,8 +2551,9 @@
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP14" s="7"/>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2369,8 +2595,9 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP15" s="7"/>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2412,8 +2639,9 @@
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP16" s="7"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2455,8 +2683,9 @@
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP17" s="7"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2498,8 +2727,9 @@
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP18" s="7"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2541,8 +2771,9 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP19" s="7"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2584,8 +2815,9 @@
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP20" s="7"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2627,8 +2859,9 @@
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP21" s="7"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2670,8 +2903,9 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP22" s="7"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2713,8 +2947,9 @@
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP23" s="7"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2756,8 +2991,9 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP24" s="7"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2799,8 +3035,9 @@
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP25" s="7"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2842,8 +3079,9 @@
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP26" s="7"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2885,8 +3123,9 @@
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP27" s="7"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2928,8 +3167,9 @@
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP28" s="7"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2971,8 +3211,9 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP29" s="7"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3014,8 +3255,9 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP30" s="7"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3057,8 +3299,9 @@
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP31" s="7"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3100,8 +3343,9 @@
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP32" s="7"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3143,8 +3387,9 @@
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP33" s="7"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3186,8 +3431,9 @@
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP34" s="7"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3229,8 +3475,9 @@
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP35" s="7"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3272,8 +3519,9 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP36" s="7"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3315,8 +3563,9 @@
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP37" s="7"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3358,8 +3607,9 @@
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP38" s="7"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3401,8 +3651,9 @@
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP39" s="7"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3444,8 +3695,9 @@
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP40" s="7"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3487,8 +3739,9 @@
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP41" s="7"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3530,8 +3783,9 @@
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP42" s="7"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3573,8 +3827,9 @@
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP43" s="7"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3616,8 +3871,9 @@
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP44" s="7"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3659,8 +3915,9 @@
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP45" s="7"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3702,8 +3959,9 @@
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
       <c r="AO46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP46" s="7"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3745,8 +4003,9 @@
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
       <c r="AO47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP47" s="7"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3788,8 +4047,9 @@
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP48" s="7"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3831,8 +4091,9 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
       <c r="AO49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP49" s="7"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3874,8 +4135,9 @@
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
       <c r="AO50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP50" s="7"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3917,8 +4179,9 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP51" s="7"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3960,8 +4223,9 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
       <c r="AO52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP52" s="7"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4003,8 +4267,9 @@
       <c r="AM53" s="7"/>
       <c r="AN53" s="7"/>
       <c r="AO53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP53" s="7"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4046,8 +4311,9 @@
       <c r="AM54" s="7"/>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP54" s="7"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4089,8 +4355,9 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
       <c r="AO55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP55" s="7"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4132,8 +4399,9 @@
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
       <c r="AO56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP56" s="7"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -4175,8 +4443,9 @@
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP57" s="7"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4218,8 +4487,9 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
       <c r="AO58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP58" s="7"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4261,8 +4531,9 @@
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP59" s="7"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4304,8 +4575,9 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
       <c r="AO60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP60" s="7"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -4347,8 +4619,9 @@
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP61" s="7"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -4390,8 +4663,9 @@
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP62" s="7"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -4433,8 +4707,9 @@
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
       <c r="AO63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP63" s="7"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4476,8 +4751,9 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
       <c r="AO64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP64" s="7"/>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4519,8 +4795,9 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
       <c r="AO65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP65" s="7"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4562,8 +4839,9 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
       <c r="AO66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP66" s="7"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4605,8 +4883,9 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP67" s="7"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4648,8 +4927,9 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
       <c r="AO68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP68" s="7"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4691,8 +4971,9 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
       <c r="AO69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP69" s="7"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4734,8 +5015,9 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
       <c r="AO70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP70" s="7"/>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4777,8 +5059,9 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
       <c r="AO71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP71" s="7"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4820,8 +5103,9 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
       <c r="AO72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP72" s="7"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4863,8 +5147,9 @@
       <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
       <c r="AO73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP73" s="7"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4906,8 +5191,9 @@
       <c r="AM74" s="7"/>
       <c r="AN74" s="7"/>
       <c r="AO74" s="7"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP74" s="7"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4949,8 +5235,9 @@
       <c r="AM75" s="7"/>
       <c r="AN75" s="7"/>
       <c r="AO75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP75" s="7"/>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4992,8 +5279,9 @@
       <c r="AM76" s="7"/>
       <c r="AN76" s="7"/>
       <c r="AO76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP76" s="7"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5035,8 +5323,9 @@
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
       <c r="AO77" s="7"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP77" s="7"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5078,8 +5367,9 @@
       <c r="AM78" s="7"/>
       <c r="AN78" s="7"/>
       <c r="AO78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP78" s="7"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5121,8 +5411,9 @@
       <c r="AM79" s="7"/>
       <c r="AN79" s="7"/>
       <c r="AO79" s="7"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP79" s="7"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5164,8 +5455,9 @@
       <c r="AM80" s="7"/>
       <c r="AN80" s="7"/>
       <c r="AO80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP80" s="7"/>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5207,8 +5499,9 @@
       <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
       <c r="AO81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP81" s="7"/>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5250,8 +5543,9 @@
       <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
       <c r="AO82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP82" s="7"/>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5293,8 +5587,9 @@
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
       <c r="AO83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP83" s="7"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5336,8 +5631,9 @@
       <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
       <c r="AO84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP84" s="7"/>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5379,8 +5675,9 @@
       <c r="AM85" s="7"/>
       <c r="AN85" s="7"/>
       <c r="AO85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP85" s="7"/>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5422,8 +5719,9 @@
       <c r="AM86" s="7"/>
       <c r="AN86" s="7"/>
       <c r="AO86" s="7"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP86" s="7"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5465,8 +5763,9 @@
       <c r="AM87" s="7"/>
       <c r="AN87" s="7"/>
       <c r="AO87" s="7"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP87" s="7"/>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5508,8 +5807,9 @@
       <c r="AM88" s="7"/>
       <c r="AN88" s="7"/>
       <c r="AO88" s="7"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP88" s="7"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5551,8 +5851,9 @@
       <c r="AM89" s="7"/>
       <c r="AN89" s="7"/>
       <c r="AO89" s="7"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP89" s="7"/>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5594,8 +5895,9 @@
       <c r="AM90" s="7"/>
       <c r="AN90" s="7"/>
       <c r="AO90" s="7"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP90" s="7"/>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5637,8 +5939,9 @@
       <c r="AM91" s="7"/>
       <c r="AN91" s="7"/>
       <c r="AO91" s="7"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP91" s="7"/>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5680,8 +5983,9 @@
       <c r="AM92" s="7"/>
       <c r="AN92" s="7"/>
       <c r="AO92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP92" s="7"/>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5723,8 +6027,9 @@
       <c r="AM93" s="7"/>
       <c r="AN93" s="7"/>
       <c r="AO93" s="7"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP93" s="7"/>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5766,8 +6071,9 @@
       <c r="AM94" s="7"/>
       <c r="AN94" s="7"/>
       <c r="AO94" s="7"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP94" s="7"/>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -5809,84 +6115,85 @@
       <c r="AM95" s="7"/>
       <c r="AN95" s="7"/>
       <c r="AO95" s="7"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AP95" s="7"/>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:C29" type="list">
-      <formula1>Index!$A$2:$A$2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Index!$A$2:$A$2</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C11:C29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMH19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="982" style="0" width="9.17"/>
+    <col min="1" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="982" max="1023" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1022" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>56</v>
       </c>
@@ -5894,8 +6201,9 @@
       <c r="C3" s="8"/>
       <c r="D3" s="24"/>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:1022" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
@@ -5910,58 +6218,70 @@
       </c>
       <c r="E4" s="25" t="s">
         <v>60</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>450</v>
       </c>
       <c r="AMF4" s="27"/>
       <c r="AMG4" s="27"/>
       <c r="AMH4" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
-      <formula1>Experiments!$A$11:$A$110</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="list">
-      <formula1>Index!$B$2:$B$25</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5:C101" type="list">
-      <formula1>Index!$C$2:$C$97</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Experiments!$A$11:$A$110</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A5:A100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Index!$B$2:$B$25</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E5:E101</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Index!$C$2:$C$97</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C5:C101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>61</v>
       </c>
@@ -5975,7 +6295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>65</v>
       </c>
@@ -5989,7 +6309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28" t="s">
         <v>67</v>
@@ -6001,7 +6321,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
         <v>68</v>
@@ -6013,7 +6333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="28" t="s">
         <v>70</v>
@@ -6025,7 +6345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="28" t="s">
         <v>72</v>
@@ -6037,7 +6357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="28" t="s">
         <v>74</v>
@@ -6049,7 +6369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="28" t="s">
         <v>76</v>
@@ -6061,7 +6381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="28" t="s">
         <v>78</v>
@@ -6073,7 +6393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="28" t="s">
         <v>80</v>
@@ -6085,7 +6405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="28" t="s">
         <v>82</v>
@@ -6097,7 +6417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="28" t="s">
         <v>84</v>
@@ -6109,7 +6429,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="28" t="s">
         <v>86</v>
@@ -6121,7 +6441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="28" t="s">
         <v>88</v>
@@ -6133,7 +6453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="28" t="s">
         <v>90</v>
@@ -6145,7 +6465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="28" t="s">
         <v>92</v>
@@ -6157,7 +6477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="28"/>
       <c r="B17" s="28" t="s">
         <v>95</v>
@@ -6169,7 +6489,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="28" t="s">
         <v>98</v>
@@ -6181,7 +6501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="B19" s="28" t="s">
         <v>101</v>
@@ -6193,7 +6513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="28" t="s">
         <v>104</v>
@@ -6205,7 +6525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="28" t="s">
         <v>107</v>
@@ -6217,7 +6537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="28" t="s">
         <v>110</v>
@@ -6229,7 +6549,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="28" t="s">
         <v>113</v>
@@ -6241,7 +6561,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="B24" s="28" t="s">
         <v>116</v>
@@ -6253,7 +6573,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="B25" s="28" t="s">
         <v>119</v>
@@ -6265,7 +6585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="30" t="s">
@@ -6275,7 +6595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="30" t="s">
@@ -6285,7 +6605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="30" t="s">
@@ -6295,7 +6615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="30" t="s">
@@ -6305,7 +6625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="30" t="s">
@@ -6315,7 +6635,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="30" t="s">
@@ -6325,7 +6645,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="30" t="s">
@@ -6335,7 +6655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="30" t="s">
@@ -6345,7 +6665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="30" t="s">
@@ -6355,7 +6675,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="30" t="s">
@@ -6365,7 +6685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="30" t="s">
@@ -6375,7 +6695,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="30" t="s">
@@ -6385,7 +6705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="30" t="s">
@@ -6395,7 +6715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="30" t="s">
@@ -6405,7 +6725,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="30" t="s">
@@ -6415,7 +6735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="30" t="s">
@@ -6425,7 +6745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="30" t="s">
@@ -6435,7 +6755,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="30" t="s">
@@ -6445,7 +6765,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="30" t="s">
@@ -6455,7 +6775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="30" t="s">
@@ -6465,7 +6785,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="30" t="s">
@@ -6475,7 +6795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="30" t="s">
@@ -6485,7 +6805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="30" t="s">
@@ -6495,7 +6815,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="30" t="s">
@@ -6505,7 +6825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="30" t="s">
@@ -6515,7 +6835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="30" t="s">
@@ -6525,7 +6845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="30" t="s">
@@ -6535,7 +6855,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="30" t="s">
@@ -6545,7 +6865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="30" t="s">
@@ -6555,7 +6875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="30" t="s">
@@ -6565,7 +6885,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="30" t="s">
@@ -6575,7 +6895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="30" t="s">
@@ -6585,7 +6905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="30" t="s">
@@ -6595,7 +6915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="30" t="s">
@@ -6605,7 +6925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="30" t="s">
@@ -6615,7 +6935,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="30" t="s">
@@ -6625,7 +6945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="30" t="s">
@@ -6635,7 +6955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="30" t="s">
@@ -6645,7 +6965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="30" t="s">
@@ -6655,7 +6975,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="30" t="s">
@@ -6665,7 +6985,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="30" t="s">
@@ -6675,7 +6995,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="30" t="s">
@@ -6685,7 +7005,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="30" t="s">
@@ -6695,7 +7015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="30" t="s">
@@ -6705,7 +7025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="30" t="s">
@@ -6715,7 +7035,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="30" t="s">
@@ -6725,7 +7045,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="30" t="s">
@@ -6735,7 +7055,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="30" t="s">
@@ -6745,7 +7065,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="30" t="s">
@@ -6755,7 +7075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="30" t="s">
@@ -6765,7 +7085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="30" t="s">
@@ -6775,7 +7095,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="30" t="s">
@@ -6785,7 +7105,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="30" t="s">
@@ -6795,7 +7115,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="30" t="s">
@@ -6805,7 +7125,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="30" t="s">
@@ -6815,7 +7135,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="30" t="s">
@@ -6825,7 +7145,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="30" t="s">
@@ -6835,7 +7155,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="30" t="s">
@@ -6845,7 +7165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="30" t="s">
@@ -6855,7 +7175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="30" t="s">
@@ -6865,7 +7185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="30" t="s">
@@ -6875,7 +7195,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="30" t="s">
@@ -6885,7 +7205,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="30" t="s">
@@ -6895,7 +7215,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="30" t="s">
@@ -6905,7 +7225,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="30" t="s">
@@ -6915,7 +7235,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="30" t="s">
@@ -6925,7 +7245,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
       <c r="C92" s="30" t="s">
@@ -6935,7 +7255,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="30" t="s">
@@ -6945,7 +7265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="30" t="s">
@@ -6955,7 +7275,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="30" t="s">
@@ -6965,7 +7285,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="30" t="s">
@@ -6975,7 +7295,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="30" t="s">
@@ -6985,7 +7305,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -6993,7 +7313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -7001,7 +7321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -7009,7 +7329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -7017,7 +7337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -7025,7 +7345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -7033,7 +7353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -7041,7 +7361,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -7049,7 +7369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -7057,7 +7377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -7065,7 +7385,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
@@ -7073,7 +7393,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -7081,7 +7401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
@@ -7089,7 +7409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
@@ -7097,7 +7417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
@@ -7105,7 +7425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
@@ -7113,7 +7433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
@@ -7121,7 +7441,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
@@ -7129,7 +7449,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
@@ -7137,7 +7457,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -7145,7 +7465,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -7153,7 +7473,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
@@ -7161,7 +7481,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
@@ -7169,7 +7489,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -7177,7 +7497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -7185,7 +7505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -7193,7 +7513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -7201,7 +7521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -7209,7 +7529,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
@@ -7217,7 +7537,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
@@ -7225,7 +7545,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
@@ -7233,7 +7553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
@@ -7241,7 +7561,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -7249,7 +7569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -7257,7 +7577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -7265,7 +7585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -7273,7 +7593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
@@ -7281,7 +7601,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
@@ -7289,7 +7609,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
@@ -7297,7 +7617,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
@@ -7305,7 +7625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
@@ -7313,7 +7633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
@@ -7321,7 +7641,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
@@ -7329,7 +7649,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -7337,7 +7657,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
@@ -7345,7 +7665,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
@@ -7353,7 +7673,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -7361,7 +7681,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -7369,7 +7689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -7377,7 +7697,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
@@ -7385,7 +7705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
@@ -7393,7 +7713,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -7401,7 +7721,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -7409,7 +7729,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7417,7 +7737,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -7425,7 +7745,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -7433,7 +7753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
@@ -7441,7 +7761,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -7449,7 +7769,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
@@ -7457,7 +7777,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -7465,7 +7785,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -7473,7 +7793,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -7481,7 +7801,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -7489,7 +7809,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -7497,7 +7817,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -7505,7 +7825,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -7513,7 +7833,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -7521,7 +7841,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -7529,7 +7849,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -7537,7 +7857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -7545,7 +7865,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -7553,7 +7873,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
@@ -7561,7 +7881,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
@@ -7569,7 +7889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
@@ -7577,7 +7897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -7585,7 +7905,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -7593,7 +7913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -7601,7 +7921,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -7609,7 +7929,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -7617,7 +7937,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7625,7 +7945,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7633,7 +7953,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -7641,7 +7961,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -7649,7 +7969,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
@@ -7657,7 +7977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
@@ -7665,7 +7985,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -7673,7 +7993,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="28"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
@@ -7681,7 +8001,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="28"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7689,7 +8009,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="28"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -7697,7 +8017,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="28"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -7705,7 +8025,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="28"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -7713,7 +8033,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="28"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -7721,7 +8041,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="28"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
@@ -7729,7 +8049,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="28"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
@@ -7737,7 +8057,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -7745,7 +8065,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="28"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
@@ -7753,7 +8073,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="28"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -7761,7 +8081,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -7769,7 +8089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="28"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
@@ -7777,7 +8097,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -7785,7 +8105,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="28"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
@@ -7793,7 +8113,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="28"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -7801,7 +8121,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="28"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
@@ -7809,7 +8129,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="28"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -7817,7 +8137,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="28"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -7825,7 +8145,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="28"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -7833,7 +8153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="28"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -7841,7 +8161,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="28"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -7849,7 +8169,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -7857,7 +8177,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="28"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
@@ -7865,7 +8185,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -7873,7 +8193,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -7881,7 +8201,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="28"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -7889,7 +8209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="28"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -7897,7 +8217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="28"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -7905,7 +8225,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="28"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -7913,7 +8233,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="28"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -7921,7 +8241,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="28"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -7929,7 +8249,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="28"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
@@ -7937,7 +8257,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="28"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
@@ -7945,7 +8265,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="28"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
@@ -7953,7 +8273,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="28"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
@@ -7961,7 +8281,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="28"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
@@ -7969,7 +8289,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="28"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
@@ -7977,7 +8297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="28"/>
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
@@ -7985,7 +8305,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="28"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -7993,7 +8313,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="28"/>
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
@@ -8001,7 +8321,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="28"/>
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
@@ -8009,7 +8329,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="28"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -8017,7 +8337,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="28"/>
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
@@ -8025,7 +8345,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="28"/>
       <c r="B228" s="28"/>
       <c r="C228" s="28"/>
@@ -8033,7 +8353,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="28"/>
       <c r="B229" s="28"/>
       <c r="C229" s="28"/>
@@ -8041,7 +8361,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="28"/>
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
@@ -8049,7 +8369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="28"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8057,7 +8377,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="28"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8065,7 +8385,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="28"/>
       <c r="B233" s="28"/>
       <c r="C233" s="28"/>
@@ -8073,7 +8393,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="28"/>
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
@@ -8081,7 +8401,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="28"/>
       <c r="B235" s="28"/>
       <c r="C235" s="28"/>
@@ -8089,7 +8409,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="28"/>
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
@@ -8097,7 +8417,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="28"/>
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
@@ -8105,7 +8425,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="28"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -8113,7 +8433,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="28"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -8121,7 +8441,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="28"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -8129,7 +8449,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="28"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -8137,7 +8457,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="28"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -8145,7 +8465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="28"/>
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
@@ -8153,7 +8473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="28"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
@@ -8161,7 +8481,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="28"/>
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
@@ -8169,7 +8489,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="28"/>
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
@@ -8177,7 +8497,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="28"/>
       <c r="B247" s="28"/>
       <c r="C247" s="28"/>
@@ -8185,7 +8505,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="28"/>
       <c r="B248" s="28"/>
       <c r="C248" s="28"/>
@@ -8193,7 +8513,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="28"/>
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
@@ -8201,7 +8521,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="28"/>
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
@@ -8209,7 +8529,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="28"/>
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
@@ -8217,7 +8537,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="28"/>
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
@@ -8225,7 +8545,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="28"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -8233,7 +8553,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="28"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -8241,7 +8561,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="28"/>
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
@@ -8249,7 +8569,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="28"/>
       <c r="B256" s="28"/>
       <c r="C256" s="28"/>
@@ -8257,7 +8577,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="28"/>
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
@@ -8265,7 +8585,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="28"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -8273,7 +8593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="28"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -8281,7 +8601,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="28"/>
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
@@ -8289,7 +8609,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="28"/>
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
@@ -8297,7 +8617,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="28"/>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -8305,7 +8625,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="28"/>
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
@@ -8313,7 +8633,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="28"/>
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
@@ -8321,7 +8641,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="28"/>
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
@@ -8329,7 +8649,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="28"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -8337,7 +8657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="28"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -8345,7 +8665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="28"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -8353,7 +8673,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="28"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -8361,7 +8681,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="28"/>
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
@@ -8369,7 +8689,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="28"/>
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
@@ -8377,7 +8697,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="28"/>
       <c r="B272" s="28"/>
       <c r="C272" s="28"/>
@@ -8385,7 +8705,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="28"/>
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
@@ -8393,7 +8713,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="28"/>
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
@@ -8401,7 +8721,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="28"/>
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
@@ -8409,7 +8729,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="28"/>
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
@@ -8417,7 +8737,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="28"/>
       <c r="B277" s="28"/>
       <c r="C277" s="28"/>
@@ -8425,7 +8745,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="28"/>
       <c r="B278" s="28"/>
       <c r="C278" s="28"/>
@@ -8433,7 +8753,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="28"/>
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
@@ -8441,7 +8761,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="28"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -8449,7 +8769,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="28"/>
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
@@ -8457,7 +8777,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="28"/>
       <c r="B282" s="28"/>
       <c r="C282" s="28"/>
@@ -8465,7 +8785,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="28"/>
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
@@ -8473,7 +8793,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="28"/>
       <c r="B284" s="28"/>
       <c r="C284" s="28"/>
@@ -8481,7 +8801,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="28"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -8489,7 +8809,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="28"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -8497,7 +8817,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="28"/>
       <c r="B287" s="28"/>
       <c r="C287" s="28"/>
@@ -8505,7 +8825,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="28"/>
       <c r="B288" s="28"/>
       <c r="C288" s="28"/>
@@ -8513,7 +8833,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="28"/>
       <c r="B289" s="28"/>
       <c r="C289" s="28"/>
@@ -8521,7 +8841,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="28"/>
       <c r="B290" s="28"/>
       <c r="C290" s="28"/>
@@ -8529,7 +8849,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="28"/>
       <c r="B291" s="28"/>
       <c r="C291" s="28"/>
@@ -8537,7 +8857,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="28"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -8545,7 +8865,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="28"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -8553,7 +8873,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="28"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -8561,7 +8881,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="28"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -8569,7 +8889,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="28"/>
       <c r="B296" s="28"/>
       <c r="C296" s="28"/>
@@ -8577,7 +8897,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="28"/>
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
@@ -8585,7 +8905,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="28"/>
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
@@ -8593,7 +8913,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="28"/>
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
@@ -8601,7 +8921,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="28"/>
       <c r="B300" s="28"/>
       <c r="C300" s="28"/>
@@ -8609,7 +8929,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="28"/>
       <c r="B301" s="28"/>
       <c r="C301" s="28"/>
@@ -8617,7 +8937,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="28"/>
       <c r="B302" s="28"/>
       <c r="C302" s="28"/>
@@ -8625,7 +8945,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="28"/>
       <c r="B303" s="28"/>
       <c r="C303" s="28"/>
@@ -8633,7 +8953,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="28"/>
       <c r="B304" s="28"/>
       <c r="C304" s="28"/>
@@ -8641,7 +8961,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="28"/>
       <c r="B305" s="28"/>
       <c r="C305" s="28"/>
@@ -8649,7 +8969,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="28"/>
       <c r="B306" s="28"/>
       <c r="C306" s="28"/>
@@ -8657,7 +8977,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="28"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -8665,7 +8985,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="28"/>
       <c r="B308" s="28"/>
       <c r="C308" s="28"/>
@@ -8673,7 +8993,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="28"/>
       <c r="B309" s="28"/>
       <c r="C309" s="28"/>
@@ -8681,7 +9001,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="28"/>
       <c r="B310" s="28"/>
       <c r="C310" s="28"/>
@@ -8689,7 +9009,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="28"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -8697,7 +9017,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="28"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -8705,7 +9025,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="28"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -8713,7 +9033,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="28"/>
       <c r="B314" s="28"/>
       <c r="C314" s="28"/>
@@ -8721,7 +9041,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="28"/>
       <c r="B315" s="28"/>
       <c r="C315" s="28"/>
@@ -8729,7 +9049,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="28"/>
       <c r="B316" s="28"/>
       <c r="C316" s="28"/>
@@ -8737,7 +9057,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="28"/>
       <c r="B317" s="28"/>
       <c r="C317" s="28"/>
@@ -8745,7 +9065,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="28"/>
       <c r="B318" s="28"/>
       <c r="C318" s="28"/>
@@ -8753,7 +9073,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="28"/>
       <c r="B319" s="28"/>
       <c r="C319" s="28"/>
@@ -8761,7 +9081,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="28"/>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -8769,7 +9089,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="28"/>
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
@@ -8777,7 +9097,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="28"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -8785,7 +9105,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="28"/>
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
@@ -8793,7 +9113,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="28"/>
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
@@ -8801,7 +9121,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="28"/>
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
@@ -8809,7 +9129,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="28"/>
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
@@ -8817,7 +9137,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="28"/>
       <c r="B327" s="28"/>
       <c r="C327" s="28"/>
@@ -8825,7 +9145,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="28"/>
       <c r="B328" s="28"/>
       <c r="C328" s="28"/>
@@ -8833,7 +9153,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="28"/>
       <c r="B329" s="28"/>
       <c r="C329" s="28"/>
@@ -8841,7 +9161,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="28"/>
       <c r="B330" s="28"/>
       <c r="C330" s="28"/>
@@ -8849,7 +9169,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="28"/>
       <c r="B331" s="28"/>
       <c r="C331" s="28"/>
@@ -8857,7 +9177,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="28"/>
       <c r="B332" s="28"/>
       <c r="C332" s="28"/>
@@ -8865,7 +9185,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="28"/>
       <c r="B333" s="28"/>
       <c r="C333" s="28"/>
@@ -8873,7 +9193,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="28"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -8881,7 +9201,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="28"/>
       <c r="B335" s="28"/>
       <c r="C335" s="28"/>
@@ -8889,7 +9209,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="28"/>
       <c r="B336" s="28"/>
       <c r="C336" s="28"/>
@@ -8897,7 +9217,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="28"/>
       <c r="B337" s="28"/>
       <c r="C337" s="28"/>
@@ -8905,7 +9225,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="28"/>
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
@@ -8913,7 +9233,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="28"/>
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
@@ -8921,7 +9241,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="28"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
@@ -8929,7 +9249,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="28"/>
       <c r="B341" s="28"/>
       <c r="C341" s="28"/>
@@ -8937,7 +9257,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="28"/>
       <c r="B342" s="28"/>
       <c r="C342" s="28"/>
@@ -8945,7 +9265,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="28"/>
       <c r="B343" s="28"/>
       <c r="C343" s="28"/>
@@ -8953,7 +9273,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="28"/>
       <c r="B344" s="28"/>
       <c r="C344" s="28"/>
@@ -8961,7 +9281,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="28"/>
       <c r="B345" s="28"/>
       <c r="C345" s="28"/>
@@ -8969,7 +9289,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="28"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -8977,7 +9297,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="28"/>
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
@@ -8985,7 +9305,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="28"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -8993,7 +9313,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="28"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -9001,7 +9321,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="28"/>
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
@@ -9009,7 +9329,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="28"/>
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
@@ -9017,7 +9337,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="28"/>
       <c r="B352" s="28"/>
       <c r="C352" s="28"/>
@@ -9025,7 +9345,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="28"/>
       <c r="B353" s="28"/>
       <c r="C353" s="28"/>
@@ -9033,7 +9353,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="28"/>
       <c r="B354" s="28"/>
       <c r="C354" s="28"/>
@@ -9041,7 +9361,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="28"/>
       <c r="B355" s="28"/>
       <c r="C355" s="28"/>
@@ -9049,7 +9369,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="28"/>
       <c r="B356" s="28"/>
       <c r="C356" s="28"/>
@@ -9057,7 +9377,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="28"/>
       <c r="B357" s="28"/>
       <c r="C357" s="28"/>
@@ -9065,7 +9385,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="28"/>
       <c r="B358" s="28"/>
       <c r="C358" s="28"/>
@@ -9073,7 +9393,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="28"/>
       <c r="B359" s="28"/>
       <c r="C359" s="28"/>
@@ -9081,7 +9401,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="28"/>
       <c r="B360" s="28"/>
       <c r="C360" s="28"/>
@@ -9089,7 +9409,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="28"/>
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
@@ -9097,7 +9417,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="28"/>
       <c r="B362" s="28"/>
       <c r="C362" s="28"/>
@@ -9105,7 +9425,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="28"/>
       <c r="B363" s="28"/>
       <c r="C363" s="28"/>
@@ -9113,7 +9433,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="28"/>
       <c r="B364" s="28"/>
       <c r="C364" s="28"/>
@@ -9121,7 +9441,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="28"/>
       <c r="B365" s="28"/>
       <c r="C365" s="28"/>
@@ -9129,7 +9449,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="28"/>
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
@@ -9137,7 +9457,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="28"/>
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
@@ -9145,7 +9465,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="28"/>
       <c r="B368" s="28"/>
       <c r="C368" s="28"/>
@@ -9153,7 +9473,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="28"/>
       <c r="B369" s="28"/>
       <c r="C369" s="28"/>
@@ -9161,7 +9481,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="28"/>
       <c r="B370" s="28"/>
       <c r="C370" s="28"/>
@@ -9169,7 +9489,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="28"/>
       <c r="B371" s="28"/>
       <c r="C371" s="28"/>
@@ -9177,7 +9497,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="28"/>
       <c r="B372" s="28"/>
       <c r="C372" s="28"/>
@@ -9185,7 +9505,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="28"/>
       <c r="B373" s="28"/>
       <c r="C373" s="28"/>
@@ -9193,7 +9513,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="28"/>
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
@@ -9201,7 +9521,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="28"/>
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
@@ -9209,7 +9529,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="28"/>
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
@@ -9217,7 +9537,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="28"/>
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
@@ -9225,7 +9545,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="28"/>
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
@@ -9233,7 +9553,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="28"/>
       <c r="B379" s="28"/>
       <c r="C379" s="28"/>
@@ -9241,7 +9561,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="28"/>
       <c r="B380" s="28"/>
       <c r="C380" s="28"/>
@@ -9249,7 +9569,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="28"/>
       <c r="B381" s="28"/>
       <c r="C381" s="28"/>
@@ -9257,7 +9577,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="28"/>
       <c r="B382" s="28"/>
       <c r="C382" s="28"/>
@@ -9265,7 +9585,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="28"/>
       <c r="B383" s="28"/>
       <c r="C383" s="28"/>
@@ -9273,7 +9593,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="28"/>
       <c r="B384" s="28"/>
       <c r="C384" s="28"/>
@@ -9281,7 +9601,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="28"/>
       <c r="B385" s="28"/>
       <c r="C385" s="28"/>
@@ -9290,10 +9610,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
